--- a/TNR/TCGenerator/TCGenerator_Article.xlsx
+++ b/TNR/TCGenerator/TCGenerator_Article.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>ID_CODGES</t>
   </si>
@@ -287,10 +287,7 @@
     <t>MAJ_MODFAM</t>
   </si>
   <si>
-    <t>DVID_NUMDOC1</t>
-  </si>
-  <si>
-    <t>????</t>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -442,228 +439,7 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1062,7 +838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1442,20 +1218,21 @@
       <c r="B14" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="15" t="e">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="15" t="e">
+        <v>KW.scrollAndSetText(myJDD,"Notes")</v>
+      </c>
+      <c r="G14" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="15" t="e">
+        <v>KW.scrollAndSetText(myJDD, "Notes")</v>
+      </c>
+      <c r="H14" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>KW.verifyValue(myJDD,"Notes")</v>
       </c>
       <c r="I14" s="17" t="str">
         <f t="shared" si="13"/>
@@ -1502,15 +1279,15 @@
       <c r="B17" s="14"/>
       <c r="D17" s="15"/>
       <c r="F17" s="15" t="str">
-        <f t="shared" ref="F17:F36" si="15">IF(ISBLANK(D17),"",VLOOKUP(D17,TAG_List,2,FALSE)&amp;B17&amp;VLOOKUP(D17,TAG_List,3,FALSE))</f>
+        <f t="shared" ref="F17:F35" si="15">IF(ISBLANK(D17),"",VLOOKUP(D17,TAG_List,2,FALSE)&amp;B17&amp;VLOOKUP(D17,TAG_List,3,FALSE))</f>
         <v/>
       </c>
       <c r="G17" s="15" t="str">
-        <f t="shared" ref="G17:G36" si="16">IF(ISBLANK(D17),"",VLOOKUP(D17,TAG_List,4,FALSE)&amp;B17&amp;VLOOKUP(D17,TAG_List,5,FALSE))</f>
+        <f t="shared" ref="G17:G35" si="16">IF(ISBLANK(D17),"",VLOOKUP(D17,TAG_List,4,FALSE)&amp;B17&amp;VLOOKUP(D17,TAG_List,5,FALSE))</f>
         <v/>
       </c>
       <c r="H17" s="15" t="str">
-        <f t="shared" ref="H17:H36" si="17">IF(ISBLANK(D17),"",VLOOKUP(D17,TAG_List,6,FALSE)&amp;B17&amp;VLOOKUP(D17,TAG_List,7,FALSE))</f>
+        <f t="shared" ref="H17:H35" si="17">IF(ISBLANK(D17),"",VLOOKUP(D17,TAG_List,6,FALSE)&amp;B17&amp;VLOOKUP(D17,TAG_List,7,FALSE))</f>
         <v/>
       </c>
       <c r="I17" s="17" t="str">
@@ -2206,10 +1983,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2231,7 +2008,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/TCGenerator/TCGenerator_Article.xlsx
+++ b/TNR/TCGenerator/TCGenerator_Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
@@ -122,12 +122,6 @@
     <t xml:space="preserve"> --&gt; pas d'action en modification</t>
   </si>
   <si>
-    <t>MYLOG.addSTEPBLOCK("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYLOG.addSTEPGRP("ONGLET </t>
-  </si>
-  <si>
     <t>")</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNRResult.addSTEPGRP("ONGLET </t>
+  </si>
+  <si>
+    <t>TNRResult.addSTEPBLOCK("</t>
   </si>
 </sst>
 </file>
@@ -439,24 +439,7 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -782,7 +765,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -790,41 +773,41 @@
         <v>23</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C18:C19"/>
     </sheetView>
@@ -862,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -891,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="15" t="s">
@@ -900,15 +883,15 @@
       <c r="E2" s="4"/>
       <c r="F2" t="str">
         <f t="shared" ref="F2" si="0">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,2,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET ARTICLE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ARTICLE")</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" ref="G2" si="1">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,4,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET ARTICLE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ARTICLE")</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2" si="2">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,6,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET ARTICLE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ARTICLE")</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2" si="3">IF(OR(D2="tab",D2="tabselected"),B2&amp;VLOOKUP(D2,TAG_List,8,FALSE),"")</f>
@@ -931,7 +914,7 @@
     <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="8"/>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="15" t="s">
@@ -961,7 +944,7 @@
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1">
       <c r="B5" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="15" t="s">
@@ -991,7 +974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>3</v>
@@ -1019,7 +1002,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>2</v>
@@ -1047,7 +1030,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>18</v>
@@ -1103,11 +1086,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1132,7 +1115,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>11</v>
@@ -1163,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" ref="F12:F16" si="10">IF(ISBLANK(D12),"",VLOOKUP(D12,TAG_List,2,FALSE)&amp;B12&amp;VLOOKUP(D12,TAG_List,3,FALSE))</f>
@@ -1216,7 +1199,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="21" t="s">
@@ -1249,22 +1232,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>MYLOG.addSTEPBLOCK("FOURNISSEUR NORMALISE")</v>
+        <v>TNRResult.addSTEPBLOCK("FOURNISSEUR NORMALISE")</v>
       </c>
       <c r="G16" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>MYLOG.addSTEPBLOCK("FOURNISSEUR NORMALISE")</v>
+        <v>TNRResult.addSTEPBLOCK("FOURNISSEUR NORMALISE")</v>
       </c>
       <c r="H16" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>MYLOG.addSTEPBLOCK("FOURNISSEUR NORMALISE")</v>
+        <v>TNRResult.addSTEPBLOCK("FOURNISSEUR NORMALISE")</v>
       </c>
       <c r="I16" s="17" t="str">
         <f t="shared" si="13"/>
@@ -1301,10 +1284,10 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="15" t="str">
         <f t="shared" si="15"/>
@@ -1329,7 +1312,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>11</v>
@@ -1357,7 +1340,7 @@
     </row>
     <row r="20" spans="2:10" s="15" customFormat="1">
       <c r="B20" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>2</v>
@@ -1385,7 +1368,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>2</v>
@@ -1435,7 +1418,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
@@ -1443,15 +1426,15 @@
       </c>
       <c r="F23" s="15" t="str">
         <f t="shared" si="15"/>
-        <v>MYLOG.addSTEPBLOCK("STOCK")</v>
+        <v>TNRResult.addSTEPBLOCK("STOCK")</v>
       </c>
       <c r="G23" s="15" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPBLOCK("STOCK")</v>
+        <v>TNRResult.addSTEPBLOCK("STOCK")</v>
       </c>
       <c r="H23" s="15" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPBLOCK("STOCK")</v>
+        <v>TNRResult.addSTEPBLOCK("STOCK")</v>
       </c>
       <c r="I23" s="17" t="str">
         <f t="shared" si="18"/>
@@ -1486,7 +1469,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>3</v>
@@ -1514,7 +1497,7 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>2</v>
@@ -1542,7 +1525,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>2</v>
@@ -1593,22 +1576,22 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="15" t="str">
         <f t="shared" si="15"/>
-        <v>MYLOG.addSTEPBLOCK("ACHAT")</v>
+        <v>TNRResult.addSTEPBLOCK("ACHAT")</v>
       </c>
       <c r="G29" s="15" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPBLOCK("ACHAT")</v>
+        <v>TNRResult.addSTEPBLOCK("ACHAT")</v>
       </c>
       <c r="H29" s="15" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPBLOCK("ACHAT")</v>
+        <v>TNRResult.addSTEPBLOCK("ACHAT")</v>
       </c>
       <c r="I29" s="17" t="str">
         <f t="shared" si="18"/>
@@ -1643,7 +1626,7 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -1671,7 +1654,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>2</v>
@@ -1699,10 +1682,10 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="15" t="str">
         <f t="shared" si="15"/>
@@ -1727,7 +1710,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>11</v>
@@ -1755,10 +1738,10 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" s="15" t="str">
         <f t="shared" si="15"/>
@@ -1805,22 +1788,22 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="15" t="str">
         <f t="shared" si="20"/>
-        <v>MYLOG.addSTEPBLOCK("ASSOCIATION")</v>
+        <v>TNRResult.addSTEPBLOCK("ASSOCIATION")</v>
       </c>
       <c r="G37" s="15" t="str">
         <f t="shared" si="21"/>
-        <v>MYLOG.addSTEPBLOCK("ASSOCIATION")</v>
+        <v>TNRResult.addSTEPBLOCK("ASSOCIATION")</v>
       </c>
       <c r="H37" s="15" t="str">
         <f t="shared" si="22"/>
-        <v>MYLOG.addSTEPBLOCK("ASSOCIATION")</v>
+        <v>TNRResult.addSTEPBLOCK("ASSOCIATION")</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -1839,7 +1822,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>3</v>
@@ -1859,7 +1842,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>3</v>
@@ -1879,7 +1862,7 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>3</v>
@@ -1983,10 +1966,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2007,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2056,23 +2039,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
+      <c r="B2" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -2080,23 +2063,23 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -2105,22 +2088,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="9" t="s">
@@ -2132,22 +2115,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>21</v>
@@ -2161,46 +2144,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -2221,10 +2204,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -2233,22 +2216,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2257,37 +2240,37 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/TNR/TCGenerator/TCGenerator_Article.xlsx
+++ b/TNR/TCGenerator/TCGenerator_Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="2"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
@@ -720,24 +720,7 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1081,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1250,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B40" sqref="B40:B55"/>
     </sheetView>
@@ -3280,26 +3263,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B35 B41:B1048576 C1:H1048576 A1:A1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>$D37="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$D37="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="3" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>$D40="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>$D40="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
